--- a/Surat Jalan/SEA/Surat Jalan UIE-KK-SEA F1248 4 Koli (2).xlsx
+++ b/Surat Jalan/SEA/Surat Jalan UIE-KK-SEA F1248 4 Koli (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work TC\Surat Jalan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869605C8-EAF4-49B0-A5AB-A5FECA6EBF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2BDB5F-24B8-4D0C-BA1E-6641B841B630}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15675" yWindow="3840" windowWidth="11865" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>SURAT JALAN</t>
   </si>
@@ -127,13 +121,43 @@
     <t>Telepon</t>
   </si>
   <si>
-    <t>UIE-KK-SEA</t>
-  </si>
-  <si>
     <t>F1248</t>
   </si>
   <si>
     <t>Saklar lampu rem mobil</t>
+  </si>
+  <si>
+    <t>Bpk Kian Kho</t>
+  </si>
+  <si>
+    <t>081217569080</t>
+  </si>
+  <si>
+    <t>Bursa Onderdil Tahap 2</t>
+  </si>
+  <si>
+    <t>Blok D1 No.30 WTC</t>
+  </si>
+  <si>
+    <t>Mangga Dua Jakarta</t>
+  </si>
+  <si>
+    <t>250206UIE-KK</t>
+  </si>
+  <si>
+    <t>Jumat, 14/02/25</t>
+  </si>
+  <si>
+    <t>279-UIE-KK-SEA</t>
+  </si>
+  <si>
+    <t>Rian</t>
+  </si>
+  <si>
+    <t>S0082276</t>
+  </si>
+  <si>
+    <t>S0082289</t>
   </si>
 </sst>
 </file>
@@ -434,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -512,22 +536,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,27 +558,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -567,6 +589,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,9 +611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -627,9 +651,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,9 +686,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,9 +738,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -873,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P54"/>
+  <dimension ref="B1:P55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -887,9 +945,9 @@
     <col min="4" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="1.7109375" customWidth="1"/>
@@ -911,7 +969,9 @@
       <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="54"/>
+      <c r="M1" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
       <c r="P1" s="54"/>
@@ -920,7 +980,9 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="K2" t="s">
@@ -929,17 +991,21 @@
       <c r="L2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="M2" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="K3" t="s">
         <v>14</v>
@@ -947,26 +1013,32 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="M3" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" customHeight="1">
       <c r="F4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="M4" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" customHeight="1">
       <c r="F5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
+      <c r="M5" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1">
       <c r="B6" t="s">
@@ -976,7 +1048,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="15"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -986,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -996,7 +1068,7 @@
       <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -1006,27 +1078,27 @@
       <c r="B9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="66"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="2:16" ht="10.5" customHeight="1">
       <c r="B10" s="9"/>
@@ -1046,7 +1118,7 @@
     </row>
     <row r="11" spans="2:16" ht="15.75">
       <c r="B11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29">
@@ -1057,30 +1129,42 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="29"/>
+        <v>41</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="29"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
       <c r="M11" s="10">
-        <v>52</v>
-      </c>
-      <c r="N11" s="62">
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="O11" s="63"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75">
+        <v>140</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="2:16" s="53" customFormat="1" ht="15.75">
       <c r="B12" s="10"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="29">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="2:16" ht="15.75">
       <c r="B13" s="10"/>
@@ -1088,262 +1172,258 @@
       <c r="D13" s="29"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="2:16" ht="15.75" customHeight="1">
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.75">
       <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="M14" s="48"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="60"/>
       <c r="O14" s="61"/>
     </row>
-    <row r="15" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="2:16" ht="10.5" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B17" s="30" t="s">
+    <row r="15" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+    </row>
+    <row r="16" spans="2:16" ht="9.75" customHeight="1">
+      <c r="B16" s="32"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+    </row>
+    <row r="17" spans="2:16" ht="10.5" customHeight="1">
+      <c r="B17" s="9"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B18" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="29">
-        <f>SUM(D11:D15)</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="29">
+        <f>SUM(D11:D16)</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="37">
-        <f>SUM(N11:O14)</f>
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="43"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="37">
+        <f>SUM(N11:O15)</f>
+        <v>0.24</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="2:16" ht="10.5" customHeight="1">
+    <row r="19" spans="2:16">
       <c r="B19" s="11"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="C21" t="s">
+      <c r="C19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="8"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" ht="10.5" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" ht="9.75" customHeight="1">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="2:16">
+      <c r="B26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="7" t="s">
+      <c r="L26" s="20"/>
+      <c r="M26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="12" customHeight="1">
-      <c r="C26" s="55" t="s">
+    <row r="27" spans="2:16" ht="12" customHeight="1">
+      <c r="C27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="2:16" ht="18.75" customHeight="1">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="2:16" ht="36.75" customHeight="1">
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:16" ht="23.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:16" ht="18.75" customHeight="1">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="2:16" ht="23.25">
+      <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>16</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="54" t="str">
-        <f t="shared" ref="M29:M35" si="0">IF(ISBLANK(M1),"",M1)</f>
-        <v/>
-      </c>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-    </row>
-    <row r="30" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="15" t="str">
-        <f>IF(ISBLANK(C2),"",C2)</f>
-        <v/>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="K30" t="s">
-        <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(M1),"",M1)</f>
+        <v>Bpk Kian Kho</v>
       </c>
       <c r="N30" s="54"/>
       <c r="O30" s="54"/>
       <c r="P30" s="54"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B31" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="53" t="str">
-        <f>IF(ISBLANK(D3),"",D3)</f>
-        <v/>
-      </c>
-      <c r="E31" s="19"/>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f>IF(ISBLANK(C2),"",C2)</f>
+        <v>250206UIE-KK</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(M2),"",M2)</f>
+        <v>081217569080</v>
       </c>
       <c r="N31" s="54"/>
       <c r="O31" s="54"/>
       <c r="P31" s="54"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1">
-      <c r="D32" s="51"/>
-      <c r="F32" s="16"/>
-      <c r="L32" s="17"/>
+      <c r="B32" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="52" t="str">
+        <f>IF(ISBLANK(D3),"",D3)</f>
+        <v>Jumat, 14/02/25</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="M32" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(M3),"",M3)</f>
+        <v>Bursa Onderdil Tahap 2</v>
       </c>
       <c r="N32" s="54"/>
       <c r="O32" s="54"/>
       <c r="P32" s="54"/>
     </row>
     <row r="33" spans="2:16" ht="15.75" customHeight="1">
+      <c r="D33" s="50"/>
       <c r="F33" s="16"/>
       <c r="L33" s="17"/>
       <c r="M33" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(M4),"",M4)</f>
+        <v>Blok D1 No.30 WTC</v>
       </c>
       <c r="N33" s="54"/>
       <c r="O33" s="54"/>
       <c r="P33" s="54"/>
     </row>
     <row r="34" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="29" t="str">
-        <f>IF(ISBLANK(C6),"",C6)</f>
-        <v/>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="15"/>
-      <c r="L34" s="7"/>
+      <c r="F34" s="16"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(ISBLANK(M5),"",M5)</f>
+        <v>Mangga Dua Jakarta</v>
       </c>
       <c r="N34" s="54"/>
       <c r="O34" s="54"/>
@@ -1351,355 +1431,381 @@
     </row>
     <row r="35" spans="2:16" ht="15.75" customHeight="1">
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="53" t="str">
-        <f>IF(ISBLANK(C7),"",C7)</f>
-        <v>UIE-KK-SEA</v>
-      </c>
-      <c r="D35" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="C35" s="29" t="str">
+        <f>IF(ISBLANK(C6),"",C6)</f>
+        <v/>
+      </c>
+      <c r="D35" s="25"/>
       <c r="E35" s="15"/>
-      <c r="K35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="L35" s="7"/>
       <c r="M35" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(M6),"",M6)</f>
         <v/>
       </c>
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
       <c r="P35" s="54"/>
     </row>
-    <row r="36" spans="2:16" ht="13.5" customHeight="1">
-      <c r="C36" s="50"/>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="44" t="s">
+    <row r="36" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="52" t="str">
+        <f>IF(ISBLANK(C7),"",C7)</f>
+        <v>279-UIE-KK-SEA</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="54" t="str">
+        <f>IF(ISBLANK(M7),"",M7)</f>
+        <v/>
+      </c>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+    </row>
+    <row r="37" spans="2:16" ht="13.5" customHeight="1">
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C38" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="44" t="s">
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="58" t="s">
+      <c r="N38" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="66"/>
-    </row>
-    <row r="38" spans="2:16" ht="10.5" customHeight="1">
-      <c r="B38" s="9"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="2:16" ht="15.75">
-      <c r="B39" s="10" t="str">
+      <c r="O38" s="59"/>
+    </row>
+    <row r="39" spans="2:16" ht="10.5" customHeight="1">
+      <c r="B39" s="9"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75">
+      <c r="B40" s="10" t="str">
         <f>IF(ISBLANK(B11),"",B11)</f>
         <v>F1248</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="29">
-        <f>IF(ISBLANK(D11),"",D11)</f>
+      <c r="C40" s="13"/>
+      <c r="D40" s="29">
         <v>4</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="29" t="str">
-        <f>IF(ISBLANK(G11),"",G11)</f>
-        <v>Saklar lampu rem mobil</v>
-      </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="M39" s="10">
+      <c r="F40" s="13"/>
+      <c r="G40" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="M40" s="10">
         <f>IF(ISBLANK(M11),"",M11)</f>
-        <v>52</v>
-      </c>
-      <c r="N39" s="62">
+        <v>140</v>
+      </c>
+      <c r="N40" s="60">
         <f>IF(ISBLANK(N11),"",N11)</f>
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="O39" s="63"/>
-    </row>
-    <row r="40" spans="2:16" ht="15.75">
-      <c r="B40" s="10" t="str">
-        <f>IF(ISBLANK(B12),"",B12)</f>
-        <v/>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="29" t="str">
-        <f>IF(ISBLANK(D12),"",D12)</f>
-        <v/>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="29" t="str">
-        <f t="shared" ref="G40:G43" si="1">IF(ISBLANK(G12),"",G12)</f>
-        <v/>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="M40" s="10" t="str">
-        <f>IF(ISBLANK(M12),"",M12)</f>
-        <v/>
-      </c>
-      <c r="N40" s="62" t="str">
-        <f>IF(ISBLANK(N12),"",N12)</f>
-        <v/>
-      </c>
-      <c r="O40" s="63"/>
+        <v>0.24</v>
+      </c>
+      <c r="O40" s="61"/>
     </row>
     <row r="41" spans="2:16" ht="15.75">
       <c r="B41" s="10" t="str">
-        <f t="shared" ref="B41:B43" si="2">IF(ISBLANK(B13),"",B13)</f>
+        <f>IF(ISBLANK(B13),"",B13)</f>
         <v/>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="29" t="str">
-        <f t="shared" ref="D41:D43" si="3">IF(ISBLANK(D13),"",D13)</f>
-        <v/>
-      </c>
-      <c r="E41" s="14"/>
+      <c r="D41" s="29">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="29" t="str">
+      <c r="G41" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="M41" s="10" t="str">
+        <f>IF(ISBLANK(M13),"",M13)</f>
+        <v/>
+      </c>
+      <c r="N41" s="60" t="str">
+        <f>IF(ISBLANK(N13),"",N13)</f>
+        <v/>
+      </c>
+      <c r="O41" s="61"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75">
+      <c r="B42" s="10" t="str">
+        <f t="shared" ref="B42:B44" si="0">IF(ISBLANK(B14),"",B14)</f>
+        <v/>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="29" t="str">
+        <f t="shared" ref="D42:D44" si="1">IF(ISBLANK(D14),"",D14)</f>
+        <v/>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="29" t="str">
+        <f t="shared" ref="G41:G44" si="2">IF(ISBLANK(G14),"",G14)</f>
+        <v/>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="M42" s="10" t="str">
+        <f t="shared" ref="M42:M43" si="3">IF(ISBLANK(M14),"",M14)</f>
+        <v/>
+      </c>
+      <c r="N42" s="60" t="str">
+        <f t="shared" ref="N42:N43" si="4">IF(ISBLANK(N14),"",N14)</f>
+        <v/>
+      </c>
+      <c r="O42" s="61"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="M41" s="10" t="str">
-        <f t="shared" ref="M41:M42" si="4">IF(ISBLANK(M13),"",M13)</f>
-        <v/>
-      </c>
-      <c r="N41" s="62" t="str">
-        <f t="shared" ref="N41:N42" si="5">IF(ISBLANK(N13),"",N13)</f>
-        <v/>
-      </c>
-      <c r="O41" s="63"/>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B42" s="10" t="str">
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="29" t="str">
+      <c r="M43" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="29" t="str">
+      <c r="N43" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O43" s="61"/>
+    </row>
+    <row r="44" spans="2:16" ht="9.75" customHeight="1">
+      <c r="B44" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M42" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N42" s="62" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O42" s="63"/>
-    </row>
-    <row r="43" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B43" s="48" t="str">
+      <c r="E44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="13" t="str">
-        <f t="shared" ref="M43" si="6">IF(ISBLANK(M15),"",M15)</f>
-        <v/>
-      </c>
-      <c r="N43" s="49" t="str">
-        <f>IF(ISBLANK(N15),"",N15)</f>
-        <v/>
-      </c>
-      <c r="O43" s="35"/>
-    </row>
-    <row r="44" spans="2:16" ht="10.5" customHeight="1">
-      <c r="B44" s="9"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="O44" s="18"/>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B45" s="30" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="13" t="str">
+        <f t="shared" ref="M44" si="5">IF(ISBLANK(M16),"",M16)</f>
+        <v/>
+      </c>
+      <c r="N44" s="48" t="str">
+        <f>IF(ISBLANK(N16),"",N16)</f>
+        <v/>
+      </c>
+      <c r="O44" s="35"/>
+    </row>
+    <row r="45" spans="2:16" ht="10.5" customHeight="1">
+      <c r="B45" s="9"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="18"/>
+    </row>
+    <row r="46" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B46" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="29">
-        <f>SUM(D39:D43)</f>
-        <v>4</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="29">
+        <f>SUM(D40:D44)</f>
+        <v>8</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="37">
-        <f>IF(ISBLANK(N17),"",N17)</f>
-        <v>0.12470000000000001</v>
-      </c>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="11"/>
-      <c r="C46" s="3"/>
-      <c r="E46" s="4"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="43"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="37">
+        <f>IF(ISBLANK(N18),"",N18)</f>
+        <v>0.24</v>
+      </c>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="2:16" ht="10.5" customHeight="1">
+    <row r="47" spans="2:16">
       <c r="B47" s="11"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="2:16" ht="9.75" customHeight="1">
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="C49" t="s">
+      <c r="C47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="43"/>
+      <c r="I47" s="8"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="2:16" ht="10.5" customHeight="1">
+      <c r="B48" s="11"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" ht="9" customHeight="1">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:14" ht="14.25" customHeight="1">
+      <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:14">
+      <c r="B54" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="7" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K53" s="21" t="s">
+      <c r="K54" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20" t="str">
-        <f>IF(ISBLANK(M25),"",M25)</f>
-        <v/>
-      </c>
-      <c r="N53" s="7" t="s">
+      <c r="L54" s="20"/>
+      <c r="M54" s="20" t="str">
+        <f>IF(ISBLANK(M26),"",M26)</f>
+        <v>Rian</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="12" customHeight="1">
-      <c r="C54" s="55" t="s">
+    <row r="55" spans="2:14" ht="12" customHeight="1">
+      <c r="C55" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="M54" s="23"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="M55" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
